--- a/文档/着力点和时代.xlsx
+++ b/文档/着力点和时代.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE78B78-CEA4-4732-B09E-2F98F01D74C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54EE5DB-D8C2-4F25-A9DE-751D0A4906D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="855" windowWidth="27915" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
   </si>
   <si>
     <r>
-      <t>解锁一种特殊战争借口，比正式战争的战争狂惩罚低75%且可以在谴责目标后立即使用。</t>
+      <t>间谍前往敌方城市不需要时间，</t>
     </r>
     <r>
       <rPr>
@@ -218,17 +218,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>每个军营及其建筑提供+2生产力，生产军事单位+15%生产力</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界奇观+50%旅游业绩。国家公园+100%旅游业绩。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>间谍前往敌方城市不需要时间，</t>
+      <t>间谍进行进攻性任务的等级+4。购买间谍需要的成本-90%。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>启发额外提供10%的市政成本。所有城市每个区域</t>
     </r>
     <r>
       <rPr>
@@ -239,13 +235,23 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>间谍进行进攻性任务的等级+4。购买间谍需要的成本-90%。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>启发额外提供10%的市政成本。所有城市每个区域</t>
+      <t>（包括市中心）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1文化。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>异大陆城市：创建时+3人口，+2忠诚度，</t>
     </r>
     <r>
       <rPr>
@@ -256,7 +262,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（包括市中心）</t>
+      <t>+15%粮锤</t>
     </r>
     <r>
       <rPr>
@@ -266,13 +272,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+1文化。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>异大陆城市：创建时+3人口，+2忠诚度，</t>
+      <t>。海军和水运单位+2移动力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>解锁一种特殊战争借口，比正式战争的战争狂惩罚低75%且可以在谴责目标后立即使用。</t>
     </r>
     <r>
       <rPr>
@@ -283,7 +289,31 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+15%粮锤</t>
+      <t>每个军营及其建筑提供+2生产力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，生产军事单位+15%生产力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>世界奇观+50%旅游业绩。</t>
     </r>
     <r>
       <rPr>
@@ -293,7 +323,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>。海军和水运单位+2移动力</t>
+      <t>国家公园+100%旅游业绩。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,7 +332,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +350,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -352,11 +397,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -364,6 +406,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -648,11 +696,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
@@ -662,221 +710,216 @@
     <col min="7" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" ht="57" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="50.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="71.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="55.5" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="55.5" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="55.5" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="55.5" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="55.5" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="55.5" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="55.5" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="108" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="75" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="H13:I13"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D6:F6"/>
@@ -884,6 +927,11 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="H13:I13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/着力点和时代.xlsx
+++ b/文档/着力点和时代.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54EE5DB-D8C2-4F25-A9DE-751D0A4906D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8ED616-C9D6-47BD-9A6D-B12E58D5C36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="855" windowWidth="27915" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>百花齐放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自由探索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,7 +203,7 @@
   </si>
   <si>
     <r>
-      <t>间谍前往敌方城市不需要时间，</t>
+      <t>启发额外提供10%的市政成本。所有城市每个区域</t>
     </r>
     <r>
       <rPr>
@@ -218,13 +214,23 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>间谍进行进攻性任务的等级+4。购买间谍需要的成本-90%。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>启发额外提供10%的市政成本。所有城市每个区域</t>
+      <t>（包括市中心）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1文化。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>异大陆城市：创建时+3人口，+2忠诚度，</t>
     </r>
     <r>
       <rPr>
@@ -235,7 +241,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（包括市中心）</t>
+      <t>+15%粮锤</t>
     </r>
     <r>
       <rPr>
@@ -245,13 +251,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+1文化。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>异大陆城市：创建时+3人口，+2忠诚度，</t>
+      <t>。海军和水运单位+2移动力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>解锁一种特殊战争借口，比正式战争的战争狂惩罚低75%且可以在谴责目标后立即使用。</t>
     </r>
     <r>
       <rPr>
@@ -262,48 +268,52 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+15%粮锤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。海军和水运单位+2移动力</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>解锁一种特殊战争借口，比正式战争的战争狂惩罚低75%且可以在谴责目标后立即使用。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+      <t>每个军营及其建筑提供+2生产力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>每个军营及其建筑提供+2生产力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>，生产军事单位+15%生产力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>，生产军事单位+15%生产力</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>世界奇观+50%旅游业绩。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>国家公园+100%旅游业绩。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琴棋书画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>间谍前往敌方城市不需要时间，</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -313,17 +323,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>世界奇观+50%旅游业绩。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>国家公园+100%旅游业绩。</t>
+      <t>间谍进行进攻性任务的等级+4。购买间谍需要的成本-75%。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,10 +405,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -696,7 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13:I13"/>
     </sheetView>
   </sheetViews>
@@ -739,12 +739,12 @@
     </row>
     <row r="2" spans="1:10" ht="57" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -754,12 +754,12 @@
     </row>
     <row r="3" spans="1:10" ht="50.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -771,11 +771,11 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -784,13 +784,13 @@
     </row>
     <row r="5" spans="1:10" ht="55.5" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -799,67 +799,67 @@
     </row>
     <row r="6" spans="1:10" ht="55.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="55.5" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="55.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="4"/>
+      <c r="E8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="1"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="55.5" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="55.5" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -867,44 +867,44 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="55.5" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="G11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="108" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="G12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -912,14 +912,19 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="3"/>
+      <c r="H13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="4"/>
       <c r="J13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="H13:I13"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D6:F6"/>
@@ -927,11 +932,6 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="H13:I13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/着力点和时代.xlsx
+++ b/文档/着力点和时代.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8ED616-C9D6-47BD-9A6D-B12E58D5C36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60061C02-A9AB-47D9-B6CD-A163067E30A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,52 +103,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所有建造者+2移动力。用信仰值和金币购买建造者和开拓者的费用降低20%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尤里卡额外提供10%的科技成本。商业中心和港口提供等于其金币相邻加成的科技值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有传教士、使徒和宗教裁判官+2移动力。新训练的这些单位获得+2次数。每回合+4大预言家点数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造工业时代后奇观+10%生产力。学院提供等于其科技值相邻加成的生产力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>首都获得一个末日机甲，每回合获得3铀。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>末日机甲获得+5战斗力和+1射程。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>原子时代：解锁卫星、核裂变和纳米技术的尤里卡；未来时代：解锁智能材料、预测系统和地外任务的尤里卡。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>如果已获得科技的尤里卡，则直接获得这项科技。</t>
+    <t>琴棋书画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文明5的黄金时代：产出金币的地块额外产出1金币，所有城市+20%琴锤，10T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文明4的黄金时代：产出金币/产能的地块额外产出1金币/产能，所有城市+100%伟人点数，8T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子时代：解锁卫星、核裂变和纳米技术的尤里卡；未来时代：解锁智能材料、预测系统和地外任务的尤里卡。如果已获得科技的尤里卡，则直接获得这项科技。
+建造宇航中心和飞行场+30%生产力。有宇航中心或飞行场的城市+15%科技值+15%生产力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>沿河及水域地块提供+1科技值。</t>
     </r>
     <r>
       <rPr>
@@ -158,20 +139,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>建造宇航中心和飞行场+30%生产力。有宇航中心或飞行场的城市+15%科技值+15%生产力。</t>
-    </r>
+      <t>商业中心和港口提供等于其金币相邻加成的科技值。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信仰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军事</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -187,7 +180,169 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+2</t>
+      <t>+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>金币</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间谍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>间谍前往敌方城市不需要时间，间谍进行进攻性任务的等级+4。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>立即获得随机的2项科技和1项市政。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>首都获得一个末日机甲，每回合获得3铀。末日机甲获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+17战斗力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和+1射程。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>异大陆城市：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+8忠诚度，+20%锤，所有单元格+1粮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。海军和水运单位+2移动力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>解锁一种特殊战争借口，比正式战争的战争狂惩罚低75%且可以在谴责目标后立即使用。每个军营及其建筑提供+2生产力，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>军营使每个人口+1生产力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用电力的建筑物产出+2。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学院提供等于其科技值相邻加成的生产力，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每座学院建筑+10%生产力。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑到我们的黄金时代要长得多，不宜做得像文明45那般凶猛，但也应该提供足够强的动力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>所有宗教单位+2移动力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>且无视ZOC</t>
     </r>
     <r>
       <rPr>
@@ -197,133 +352,87 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>金币</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>启发额外提供10%的市政成本。所有城市每个区域</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（包括市中心）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+1文化。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>异大陆城市：创建时+3人口，+2忠诚度，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+15%粮锤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。海军和水运单位+2移动力</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>解锁一种特殊战争借口，比正式战争的战争狂惩罚低75%且可以在谴责目标后立即使用。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>每个军营及其建筑提供+2生产力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，生产军事单位+15%生产力</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>世界奇观+50%旅游业绩。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>国家公园+100%旅游业绩。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>琴棋书画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>间谍前往敌方城市不需要时间，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>间谍进行进攻性任务的等级+4。购买间谍需要的成本-75%。</t>
+      <t>，新训练的这些单位获得+2次数。每回合+4大预言家点数。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每座宗教建筑使本城宗教压力+50%。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>魅力普通以上的单元格+1文化值。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所有城市每个区域（包括市中心）+1文化。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每回合+4大文点数。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>所有建造者+2移动力。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>城市建造区域、建筑和奇观时+6产能（工邦效果）。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界奇观+50%旅游业绩。国家公园+100%旅游业绩。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所有奇观建设加速100%。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,7 +441,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,18 +480,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -397,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -405,13 +508,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -694,13 +804,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:I13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
@@ -710,7 +820,7 @@
     <col min="7" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -737,186 +847,239 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="57" customHeight="1">
+    <row r="2" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="8"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="50.25" customHeight="1">
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3"/>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="71.25" customHeight="1">
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="55.5" customHeight="1">
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="55.5" customHeight="1">
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="55.5" customHeight="1">
+      <c r="D6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="55.5" customHeight="1">
+      <c r="D7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="55.5" customHeight="1">
+      <c r="D8" s="3"/>
+      <c r="E8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="55.5" customHeight="1">
+      <c r="D9" s="3"/>
+      <c r="E9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="55.5" customHeight="1">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="K11" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="108" customHeight="1">
+    </row>
+    <row r="12" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="75" customHeight="1">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="8"/>
       <c r="J13" s="1"/>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
